--- a/output/QUALITY/rebalance/rebalance_20240930.xlsx
+++ b/output/QUALITY/rebalance/rebalance_20240930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>27.54%</t>
+          <t>27.53%</t>
         </is>
       </c>
     </row>
@@ -6249,13 +6249,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0263693080797932</v>
+        <v>0.02648786641580675</v>
       </c>
       <c r="C3" t="n">
         <v>0.02271638246231731</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.003652925617475891</v>
+        <v>-0.003771483953489432</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6270,13 +6270,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02353323158946445</v>
+        <v>0.02347409214805844</v>
       </c>
       <c r="C4" t="n">
         <v>0.022346586943614</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.001186644645850457</v>
+        <v>-0.001127505204444438</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01407794395299937</v>
+        <v>0.01428888521049399</v>
       </c>
       <c r="C5" t="n">
         <v>0.02220596047875499</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008128016525755616</v>
+        <v>0.007917075268261001</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6312,13 +6312,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01900483070170774</v>
+        <v>0.01895096513308531</v>
       </c>
       <c r="C6" t="n">
         <v>0.02192600964593382</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002921178944226072</v>
+        <v>0.002975044512848506</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6333,13 +6333,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02244897009473629</v>
+        <v>0.02238174730913845</v>
       </c>
       <c r="C7" t="n">
         <v>0.02186090480109168</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0005880652936446108</v>
+        <v>-0.0005208425080467649</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6354,13 +6354,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02200431098341501</v>
+        <v>0.02194455973896455</v>
       </c>
       <c r="C8" t="n">
         <v>0.02176585172762216</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0002384592557928451</v>
+        <v>-0.0001787080113423885</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6375,13 +6375,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01742374277121697</v>
+        <v>0.01737422551828797</v>
       </c>
       <c r="C9" t="n">
         <v>0.0217332993052011</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004309556533984127</v>
+        <v>0.004359073786913126</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02495004681725504</v>
+        <v>0.02488110161464096</v>
       </c>
       <c r="C11" t="n">
         <v>0.02153147428619049</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.003418572531064555</v>
+        <v>-0.003349627328450476</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6438,13 +6438,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02027112095662983</v>
+        <v>0.02021032793101817</v>
       </c>
       <c r="C12" t="n">
         <v>0.02150673444515048</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001235613488520641</v>
+        <v>0.001296406514132303</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6480,13 +6480,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01789105484598833</v>
+        <v>0.01783784276358418</v>
       </c>
       <c r="C14" t="n">
         <v>0.02116037667059032</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003269321824601993</v>
+        <v>0.003322533907006139</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6501,13 +6501,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02764234124409189</v>
+        <v>0.02753227075790539</v>
       </c>
       <c r="C15" t="n">
         <v>0.02115777247679663</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.006484568767295262</v>
+        <v>-0.006374498281108757</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6522,13 +6522,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02205840795491928</v>
+        <v>0.02200243834982857</v>
       </c>
       <c r="C16" t="n">
         <v>0.02084917551224492</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.00120923244267436</v>
+        <v>-0.00115326283758365</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6543,13 +6543,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02333279787739975</v>
+        <v>0.02327011450834842</v>
       </c>
       <c r="C17" t="n">
         <v>0.0208088105084428</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.002523987368956947</v>
+        <v>-0.002461303999905622</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6564,13 +6564,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01933050815690945</v>
+        <v>0.01931300199159457</v>
       </c>
       <c r="C18" t="n">
         <v>0.02067860081875854</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001348092661849081</v>
+        <v>0.001365598827163961</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6585,13 +6585,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02109042406167238</v>
+        <v>0.02103439994551044</v>
       </c>
       <c r="C19" t="n">
         <v>0.02060568339253534</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0004847406691370348</v>
+        <v>-0.0004287165529750989</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6606,13 +6606,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01993801760300066</v>
+        <v>0.01988220427588743</v>
       </c>
       <c r="C20" t="n">
         <v>0.02056662048563006</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0006286028826293991</v>
+        <v>0.0006844162097426332</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6648,13 +6648,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02580818483868232</v>
+        <v>0.02571049750244895</v>
       </c>
       <c r="C22" t="n">
         <v>0.02045464015250159</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.005353544686180729</v>
+        <v>-0.005255857349947355</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6669,13 +6669,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02101144742281636</v>
+        <v>0.02095895884617247</v>
       </c>
       <c r="C23" t="n">
         <v>0.02026974239314993</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0007417050296664313</v>
+        <v>-0.0006892164530225356</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6690,13 +6690,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01998262904860335</v>
+        <v>0.01991828116575021</v>
       </c>
       <c r="C24" t="n">
         <v>0.02022416900176044</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0002415399531570869</v>
+        <v>0.0003058878360102275</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01703395251119121</v>
+        <v>0.0169834436129938</v>
       </c>
       <c r="C26" t="n">
         <v>0.01993510349066136</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002901150979470152</v>
+        <v>0.002951659877667566</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01395497963675969</v>
+        <v>0.01391798388795324</v>
       </c>
       <c r="C27" t="n">
         <v>0.01991557203720872</v>
       </c>
       <c r="D27" t="n">
-        <v>0.005960592400449031</v>
+        <v>0.005997588149255479</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6795,13 +6795,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02186850067411048</v>
+        <v>0.02182032009337903</v>
       </c>
       <c r="C29" t="n">
         <v>0.01983874832029501</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.002029752353815469</v>
+        <v>-0.001981571773084022</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6816,13 +6816,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02297608763959472</v>
+        <v>0.02293708979557514</v>
       </c>
       <c r="C30" t="n">
         <v>0.01974239314992865</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.003233694489666074</v>
+        <v>-0.003194696645646491</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6837,13 +6837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01986082823696575</v>
+        <v>0.0198117465588951</v>
       </c>
       <c r="C31" t="n">
         <v>0.01944291086365483</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0004179173733109172</v>
+        <v>-0.0003688356952402695</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6858,13 +6858,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02239011523268516</v>
+        <v>0.02232871767518994</v>
       </c>
       <c r="C32" t="n">
         <v>0.01937389972812217</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.003016215504562988</v>
+        <v>-0.002954817947067773</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6879,13 +6879,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01651545735704249</v>
+        <v>0.01648218383921418</v>
       </c>
       <c r="C33" t="n">
         <v>0.01917077261221472</v>
       </c>
       <c r="D33" t="n">
-        <v>0.002655315255172225</v>
+        <v>0.002688588773000534</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6921,13 +6921,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01562556349513038</v>
+        <v>0.01587756472748568</v>
       </c>
       <c r="C35" t="n">
         <v>0.01887129032594089</v>
       </c>
       <c r="D35" t="n">
-        <v>0.003245726830810512</v>
+        <v>0.002993725598455212</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02868680656765669</v>
+        <v>0.02857128468706734</v>
       </c>
       <c r="C36" t="n">
         <v>0.01873457015177242</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.009952236415884275</v>
+        <v>-0.009836714535294923</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6963,13 +6963,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01822739367077614</v>
+        <v>0.01816356324282399</v>
       </c>
       <c r="C37" t="n">
         <v>0.01871503869831978</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0004876450275436393</v>
+        <v>0.0005514754554957826</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -6984,13 +6984,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01750426672536141</v>
+        <v>0.01744891825029337</v>
       </c>
       <c r="C38" t="n">
         <v>0.01870983031073241</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001205563585370995</v>
+        <v>0.001260912060439039</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7005,13 +7005,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02010831072206777</v>
+        <v>0.02005259220584306</v>
       </c>
       <c r="C39" t="n">
         <v>0.01866295482244607</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.001445355899621699</v>
+        <v>-0.001389637383396987</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7026,13 +7026,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02320342624219487</v>
+        <v>0.02311913835285177</v>
       </c>
       <c r="C40" t="n">
         <v>0.01858613110553235</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.004617295136662519</v>
+        <v>-0.004533007247319424</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7047,13 +7047,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01869119826385498</v>
+        <v>0.01862849244405518</v>
       </c>
       <c r="C41" t="n">
         <v>0.01848586964447546</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.0002053286193795141</v>
+        <v>-0.0001426227995797134</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7068,13 +7068,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0179524895369599</v>
+        <v>0.01790883224242998</v>
       </c>
       <c r="C42" t="n">
         <v>0.01845592141584809</v>
       </c>
       <c r="D42" t="n">
-        <v>0.00050343187888819</v>
+        <v>0.0005470891734181069</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7110,13 +7110,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02031350716829385</v>
+        <v>0.0210571929491832</v>
       </c>
       <c r="C44" t="n">
         <v>0.01840513963687122</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.001908367531422629</v>
+        <v>-0.00265205331231198</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7131,13 +7131,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01917363247913024</v>
+        <v>0.01910659186621714</v>
       </c>
       <c r="C45" t="n">
         <v>0.01840513963687122</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.000768492842259022</v>
+        <v>-0.000701452229345919</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7173,17 +7173,17 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01782178043259562</v>
+        <v>0.01816408140034158</v>
       </c>
       <c r="C47" t="n">
         <v>0.01816164751716164</v>
       </c>
       <c r="D47" t="n">
-        <v>0.000339867084566018</v>
+        <v>-2.433883179938506e-06</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7215,13 +7215,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01796880370143676</v>
+        <v>0.01791502851244999</v>
       </c>
       <c r="C49" t="n">
         <v>0.01807570912197002</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0001069054205332619</v>
+        <v>0.000160680609520035</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7278,13 +7278,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02279163208072525</v>
+        <v>0.02271198814276286</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02279163208072525</v>
+        <v>-0.02271198814276286</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7299,13 +7299,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01674612738191501</v>
+        <v>0.01670042468330133</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01674612738191501</v>
+        <v>-0.01670042468330133</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7320,13 +7320,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02241961922149453</v>
+        <v>0.02235521835766995</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02241961922149453</v>
+        <v>-0.02235521835766995</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7341,13 +7341,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01699759064274775</v>
+        <v>0.01693389882998918</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01699759064274775</v>
+        <v>-0.01693389882998918</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7362,13 +7362,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01639202518761352</v>
+        <v>0.01634304002018788</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01639202518761352</v>
+        <v>-0.01634304002018788</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7383,13 +7383,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01802854059703769</v>
+        <v>0.01899629990357871</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01802854059703769</v>
+        <v>-0.01899629990357871</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7404,13 +7404,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.02056713808372425</v>
+        <v>0.02049832055716688</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.02056713808372425</v>
+        <v>-0.02049832055716688</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7425,13 +7425,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.02090981129233584</v>
+        <v>0.02081583871635295</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02090981129233584</v>
+        <v>-0.02081583871635295</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7446,13 +7446,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01883409624209137</v>
+        <v>0.01875654223743582</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01883409624209137</v>
+        <v>-0.01875654223743582</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7467,13 +7467,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01809119837933845</v>
+        <v>0.01804419384526235</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01809119837933845</v>
+        <v>-0.01804419384526235</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7488,13 +7488,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01619421560454847</v>
+        <v>0.01614909932361742</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01619421560454847</v>
+        <v>-0.01614909932361742</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7509,13 +7509,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01398158599131804</v>
+        <v>0.01394658791190673</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01398158599131804</v>
+        <v>-0.01394658791190673</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>

--- a/output/QUALITY/rebalance/rebalance_20240930.xlsx
+++ b/output/QUALITY/rebalance/rebalance_20240930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>27.53%</t>
+          <t>27.69%</t>
         </is>
       </c>
     </row>
@@ -6249,13 +6249,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02648786641580675</v>
+        <v>0.02660628407740758</v>
       </c>
       <c r="C3" t="n">
         <v>0.02271638246231731</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.003771483953489432</v>
+        <v>-0.003889901615090272</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6270,13 +6270,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02347409214805844</v>
+        <v>0.02363516890733172</v>
       </c>
       <c r="C4" t="n">
         <v>0.022346586943614</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.001127505204444438</v>
+        <v>-0.001288581963717721</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01428888521049399</v>
+        <v>0.01366320224738242</v>
       </c>
       <c r="C5" t="n">
         <v>0.02220596047875499</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007917075268261001</v>
+        <v>0.008542758231372566</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6312,13 +6312,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01895096513308531</v>
+        <v>0.01908314482845533</v>
       </c>
       <c r="C6" t="n">
         <v>0.02192600964593382</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002975044512848506</v>
+        <v>0.002842864817478485</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6333,13 +6333,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02238174730913845</v>
+        <v>0.02280301618652487</v>
       </c>
       <c r="C7" t="n">
         <v>0.02186090480109168</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0005208425080467649</v>
+        <v>-0.0009421113854331913</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6354,13 +6354,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02194455973896455</v>
+        <v>0.0220220427159985</v>
       </c>
       <c r="C8" t="n">
         <v>0.02176585172762216</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0001787080113423885</v>
+        <v>-0.0002561909883763321</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6375,13 +6375,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01737422551828797</v>
+        <v>0.0176985352452791</v>
       </c>
       <c r="C9" t="n">
         <v>0.0217332993052011</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004359073786913126</v>
+        <v>0.004034764059921994</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02488110161464096</v>
+        <v>0.02515337171080152</v>
       </c>
       <c r="C11" t="n">
         <v>0.02153147428619049</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.003349627328450476</v>
+        <v>-0.003621897424611036</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6438,13 +6438,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02021032793101817</v>
+        <v>0.0205908198613271</v>
       </c>
       <c r="C12" t="n">
         <v>0.02150673444515048</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001296406514132303</v>
+        <v>0.0009159145838233719</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6480,13 +6480,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01783784276358418</v>
+        <v>0.01761575671373605</v>
       </c>
       <c r="C14" t="n">
         <v>0.02116037667059032</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003322533907006139</v>
+        <v>0.003544619956854268</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6501,13 +6501,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02753227075790539</v>
+        <v>0.02719393709727361</v>
       </c>
       <c r="C15" t="n">
         <v>0.02115777247679663</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.006374498281108757</v>
+        <v>-0.006036164620476979</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6522,13 +6522,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02200243834982857</v>
+        <v>0.02201506529114938</v>
       </c>
       <c r="C16" t="n">
         <v>0.02084917551224492</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.00115326283758365</v>
+        <v>-0.001165889778904455</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6543,13 +6543,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02327011450834842</v>
+        <v>0.02351614675727704</v>
       </c>
       <c r="C17" t="n">
         <v>0.0208088105084428</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.002461303999905622</v>
+        <v>-0.002707336248834246</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6564,13 +6564,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01931300199159457</v>
+        <v>0.01922209160477353</v>
       </c>
       <c r="C18" t="n">
         <v>0.02067860081875854</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001365598827163961</v>
+        <v>0.001456509213985008</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6585,13 +6585,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02103439994551044</v>
+        <v>0.02142304431915806</v>
       </c>
       <c r="C19" t="n">
         <v>0.02060568339253534</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0004287165529750989</v>
+        <v>-0.0008173609266227226</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6606,13 +6606,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01988220427588743</v>
+        <v>0.02004714650329831</v>
       </c>
       <c r="C20" t="n">
         <v>0.02056662048563006</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0006844162097426332</v>
+        <v>0.0005194739823317467</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6648,13 +6648,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02571049750244895</v>
+        <v>0.02621520961263558</v>
       </c>
       <c r="C22" t="n">
         <v>0.02045464015250159</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.005255857349947355</v>
+        <v>-0.005760569460133987</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6669,13 +6669,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02095895884617247</v>
+        <v>0.02134282212782405</v>
       </c>
       <c r="C23" t="n">
         <v>0.02026974239314993</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0006892164530225356</v>
+        <v>-0.001073079734674118</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6690,17 +6690,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01991828116575021</v>
+        <v>0.02029777810392587</v>
       </c>
       <c r="C24" t="n">
         <v>0.02022416900176044</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0003058878360102275</v>
+        <v>-7.360910216542768e-05</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0169834436129938</v>
+        <v>0.01718545736575983</v>
       </c>
       <c r="C26" t="n">
         <v>0.01993510349066136</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002951659877667566</v>
+        <v>0.002749646124901532</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01391798388795324</v>
+        <v>0.01417506572447484</v>
       </c>
       <c r="C27" t="n">
         <v>0.01991557203720872</v>
       </c>
       <c r="D27" t="n">
-        <v>0.005997588149255479</v>
+        <v>0.00574050631273388</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6795,13 +6795,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02182032009337903</v>
+        <v>0.02211886375656776</v>
       </c>
       <c r="C29" t="n">
         <v>0.01983874832029501</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.001981571773084022</v>
+        <v>-0.002280115436272753</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6816,13 +6816,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02293708979557514</v>
+        <v>0.02333844698165199</v>
       </c>
       <c r="C30" t="n">
         <v>0.01974239314992865</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.003194696645646491</v>
+        <v>-0.003596053831723345</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6837,13 +6837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0198117465588951</v>
+        <v>0.02017405635332516</v>
       </c>
       <c r="C31" t="n">
         <v>0.01944291086365483</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0003688356952402695</v>
+        <v>-0.0007311454896703241</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6858,13 +6858,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02232871767518994</v>
+        <v>0.02274323311557133</v>
       </c>
       <c r="C32" t="n">
         <v>0.01937389972812217</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.002954817947067773</v>
+        <v>-0.003369333387449158</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6879,13 +6879,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01648218383921418</v>
+        <v>0.01634812469023683</v>
       </c>
       <c r="C33" t="n">
         <v>0.01917077261221472</v>
       </c>
       <c r="D33" t="n">
-        <v>0.002688588773000534</v>
+        <v>0.002822647921977884</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6921,13 +6921,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01587756472748568</v>
+        <v>0.01557310836483229</v>
       </c>
       <c r="C35" t="n">
         <v>0.01887129032594089</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002993725598455212</v>
+        <v>0.003298181961108601</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02857128468706734</v>
+        <v>0.02878673982712027</v>
       </c>
       <c r="C36" t="n">
         <v>0.01873457015177242</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.009836714535294923</v>
+        <v>-0.01005216967534785</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6963,13 +6963,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01816356324282399</v>
+        <v>0.01773561566772088</v>
       </c>
       <c r="C37" t="n">
         <v>0.01871503869831978</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0005514754554957826</v>
+        <v>0.0009794230305988985</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -6984,13 +6984,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01744891825029337</v>
+        <v>0.01678213523737927</v>
       </c>
       <c r="C38" t="n">
         <v>0.01870983031073241</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001260912060439039</v>
+        <v>0.001927695073353143</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7005,13 +7005,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02005259220584306</v>
+        <v>0.02042544192201035</v>
       </c>
       <c r="C39" t="n">
         <v>0.01866295482244607</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.001389637383396987</v>
+        <v>-0.001762487099564284</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7026,13 +7026,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02311913835285177</v>
+        <v>0.02329559792311225</v>
       </c>
       <c r="C40" t="n">
         <v>0.01858613110553235</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.004533007247319424</v>
+        <v>-0.004709466817579906</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7047,17 +7047,17 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01862849244405518</v>
+        <v>0.01845123360266494</v>
       </c>
       <c r="C41" t="n">
         <v>0.01848586964447546</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.0001426227995797134</v>
+        <v>3.463604181052488e-05</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -7068,13 +7068,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01790883224242998</v>
+        <v>0.0174120268727377</v>
       </c>
       <c r="C42" t="n">
         <v>0.01845592141584809</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0005470891734181069</v>
+        <v>0.001043894543110387</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7110,13 +7110,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0210571929491832</v>
+        <v>0.01980538531080673</v>
       </c>
       <c r="C44" t="n">
         <v>0.01840513963687122</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.00265205331231198</v>
+        <v>-0.001400245673935509</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7131,13 +7131,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01910659186621714</v>
+        <v>0.01947602272759064</v>
       </c>
       <c r="C45" t="n">
         <v>0.01840513963687122</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.000701452229345919</v>
+        <v>-0.001070883090719416</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7173,17 +7173,17 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01816408140034158</v>
+        <v>0.01770254295967671</v>
       </c>
       <c r="C47" t="n">
         <v>0.01816164751716164</v>
       </c>
       <c r="D47" t="n">
-        <v>-2.433883179938506e-06</v>
+        <v>0.0004591045574849247</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -7215,17 +7215,17 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01791502851244999</v>
+        <v>0.01825219241360321</v>
       </c>
       <c r="C49" t="n">
         <v>0.01807570912197002</v>
       </c>
       <c r="D49" t="n">
-        <v>0.000160680609520035</v>
+        <v>-0.0001764832916331914</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7278,13 +7278,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02271198814276286</v>
+        <v>0.02241284630214712</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02271198814276286</v>
+        <v>-0.02241284630214712</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7299,13 +7299,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01670042468330133</v>
+        <v>0.01689174661028871</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01670042468330133</v>
+        <v>-0.01689174661028871</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7320,13 +7320,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02235521835766995</v>
+        <v>0.02277320241623628</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02235521835766995</v>
+        <v>-0.02277320241623628</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7341,13 +7341,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01693389882998918</v>
+        <v>0.01726566220734475</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01693389882998918</v>
+        <v>-0.01726566220734475</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7362,13 +7362,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01634304002018788</v>
+        <v>0.01581156527360426</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01634304002018788</v>
+        <v>-0.01581156527360426</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7383,13 +7383,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01899629990357871</v>
+        <v>0.01727035215935272</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01899629990357871</v>
+        <v>-0.01727035215935272</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7404,13 +7404,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.02049832055716688</v>
+        <v>0.01999854994989064</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.02049832055716688</v>
+        <v>-0.01999854994989064</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7425,13 +7425,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.02081583871635295</v>
+        <v>0.02075972726921708</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02081583871635295</v>
+        <v>-0.02075972726921708</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7446,13 +7446,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01875654223743582</v>
+        <v>0.01829479799092635</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01875654223743582</v>
+        <v>-0.01829479799092635</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7467,13 +7467,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01804419384526235</v>
+        <v>0.01837651739642241</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01804419384526235</v>
+        <v>-0.01837651739642241</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7488,13 +7488,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01614909932361742</v>
+        <v>0.01644961702030061</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01614909932361742</v>
+        <v>-0.01644961702030061</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7509,13 +7509,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01394658791190673</v>
+        <v>0.01376954067586631</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01394658791190673</v>
+        <v>-0.01376954067586631</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
